--- a/judo-tatami-asm2rdbms/src/test/model/RDBMS Sql Name Mapping.xlsx
+++ b/judo-tatami-asm2rdbms/src/test/model/RDBMS Sql Name Mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Project/northwind-model/model/model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Project/judo-tatami/judo-tatami-asm2rdbms/src/test/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,9 +38,6 @@
     <t>ID_SHIPPER</t>
   </si>
   <si>
-    <t>RdbmsUUID</t>
-  </si>
-  <si>
     <t>northwind.entities.Territory#shipper</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>FullyQualifiedName</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,7 +414,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -438,10 +438,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
